--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wpc_sum-raw-ss-lookup-tabbed-grade.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/wpc_sum-raw-ss-lookup-tabbed-grade.xlsx
@@ -397,7 +397,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -405,7 +405,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -429,7 +429,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -453,7 +453,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -461,7 +461,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
@@ -501,7 +501,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -533,7 +533,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20">
@@ -557,7 +557,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
@@ -589,7 +589,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27">
@@ -597,7 +597,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28">
@@ -605,7 +605,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
@@ -1022,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -1046,7 +1046,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1078,7 +1078,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1110,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -1150,7 +1150,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34">
@@ -1158,7 +1158,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1198,7 +1198,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
@@ -1206,7 +1206,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -1214,7 +1214,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42">
@@ -1254,7 +1254,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -1262,7 +1262,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -1270,7 +1270,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -1310,7 +1310,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54">
@@ -1318,7 +1318,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -1519,7 +1519,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -1543,7 +1543,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -1567,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -1575,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
@@ -1607,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -1647,7 +1647,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33">
@@ -1655,7 +1655,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
@@ -1663,7 +1663,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -1703,7 +1703,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40">
@@ -1711,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -1719,7 +1719,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -1759,7 +1759,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -1767,7 +1767,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
@@ -1775,7 +1775,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -1807,7 +1807,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53">
@@ -1815,7 +1815,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -1823,7 +1823,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55">
@@ -1992,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -2032,7 +2032,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -2064,7 +2064,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
@@ -2096,7 +2096,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
@@ -2136,7 +2136,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -2144,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -2152,7 +2152,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2192,7 +2192,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -2200,7 +2200,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
@@ -2208,7 +2208,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40">
@@ -2216,7 +2216,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -2256,7 +2256,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46">
@@ -2264,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -2272,7 +2272,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -2304,7 +2304,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52">
@@ -2312,7 +2312,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -2320,7 +2320,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -2344,7 +2344,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57">
@@ -2352,7 +2352,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -2521,7 +2521,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -2545,7 +2545,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -2577,7 +2577,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -2617,7 +2617,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28">
@@ -2625,7 +2625,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -2665,7 +2665,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2673,7 +2673,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -2681,7 +2681,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36">
@@ -2689,7 +2689,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37">
@@ -2697,7 +2697,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -2737,7 +2737,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -2745,7 +2745,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44">
@@ -2753,7 +2753,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
@@ -2761,7 +2761,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -2769,7 +2769,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47">
@@ -2801,7 +2801,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51">
@@ -2809,7 +2809,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
@@ -2817,7 +2817,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
@@ -2841,7 +2841,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -2849,7 +2849,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -2865,7 +2865,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -2938,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -3026,7 +3026,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3090,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -3138,7 +3138,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -3146,7 +3146,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -3154,7 +3154,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3202,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38">
@@ -3210,7 +3210,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -3218,7 +3218,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -3226,7 +3226,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
@@ -3234,7 +3234,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -3242,7 +3242,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
@@ -3282,7 +3282,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48">
@@ -3290,7 +3290,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49">
@@ -3298,7 +3298,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
@@ -3306,7 +3306,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51">
@@ -3330,7 +3330,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
@@ -3338,7 +3338,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55">
@@ -3346,7 +3346,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56">
@@ -3362,7 +3362,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
@@ -3370,7 +3370,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
@@ -3507,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -3531,7 +3531,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -3563,7 +3563,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -3595,7 +3595,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">
@@ -3603,7 +3603,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25">
@@ -3651,7 +3651,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -3659,7 +3659,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -3667,7 +3667,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33">
@@ -3675,7 +3675,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -3683,7 +3683,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -3739,7 +3739,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -3747,7 +3747,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -3755,7 +3755,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44">
@@ -3763,7 +3763,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -3771,7 +3771,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46">
@@ -3779,7 +3779,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -3811,7 +3811,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51">
@@ -3819,7 +3819,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -3827,7 +3827,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53">
@@ -3835,7 +3835,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54">
@@ -3851,7 +3851,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
@@ -3859,7 +3859,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57">
@@ -3875,7 +3875,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
@@ -3883,7 +3883,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60">
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -4060,7 +4060,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -4100,7 +4100,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -4108,7 +4108,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -4116,7 +4116,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -4172,7 +4172,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -4180,7 +4180,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -4188,7 +4188,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35">
@@ -4196,7 +4196,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -4204,7 +4204,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -4212,7 +4212,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -4268,7 +4268,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45">
@@ -4276,7 +4276,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -4284,7 +4284,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47">
@@ -4292,7 +4292,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48">
@@ -4300,7 +4300,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49">
@@ -4308,7 +4308,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
@@ -4332,7 +4332,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53">
@@ -4340,7 +4340,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54">
@@ -4348,7 +4348,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55">
@@ -4364,7 +4364,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57">
@@ -4372,7 +4372,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58">
@@ -4380,7 +4380,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59">
@@ -4388,7 +4388,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
@@ -4396,7 +4396,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61">
@@ -4461,7 +4461,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -4605,7 +4605,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -4613,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -4677,7 +4677,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -4685,7 +4685,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -4693,7 +4693,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -4701,7 +4701,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -4709,7 +4709,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -4717,7 +4717,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -4725,7 +4725,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -4733,7 +4733,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -4789,7 +4789,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -4797,7 +4797,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -4805,7 +4805,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49">
@@ -4813,7 +4813,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50">
@@ -4821,7 +4821,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
@@ -4845,7 +4845,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54">
@@ -4853,7 +4853,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55">
@@ -4861,7 +4861,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56">
@@ -4877,7 +4877,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58">
@@ -4885,7 +4885,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
@@ -4901,7 +4901,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61">
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -5054,7 +5054,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -5094,7 +5094,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -5102,7 +5102,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -5174,7 +5174,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -5182,7 +5182,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
@@ -5190,7 +5190,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -5198,7 +5198,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -5206,7 +5206,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -5214,7 +5214,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -5222,7 +5222,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -5230,7 +5230,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -5238,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40">
@@ -5302,7 +5302,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48">
@@ -5310,7 +5310,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49">
@@ -5318,7 +5318,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50">
@@ -5326,7 +5326,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51">
@@ -5334,7 +5334,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52">
@@ -5358,7 +5358,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55">
@@ -5366,7 +5366,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56">
@@ -5374,7 +5374,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57">
@@ -5390,7 +5390,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59">
@@ -5398,7 +5398,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60">
@@ -5406,7 +5406,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
@@ -5414,7 +5414,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -5519,7 +5519,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -5591,7 +5591,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -5655,7 +5655,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -5663,7 +5663,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -5671,7 +5671,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -5679,7 +5679,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -5687,7 +5687,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -5695,7 +5695,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34">
@@ -5703,7 +5703,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
@@ -5711,7 +5711,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -5799,7 +5799,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
@@ -5807,7 +5807,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48">
@@ -5815,7 +5815,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49">
@@ -5823,7 +5823,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50">
@@ -5831,7 +5831,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51">
@@ -5839,7 +5839,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52">
@@ -5863,7 +5863,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55">
@@ -5871,7 +5871,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56">
@@ -5879,7 +5879,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57">
@@ -5895,7 +5895,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
@@ -5903,7 +5903,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60">
@@ -5911,7 +5911,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61">
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -5960,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -5984,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -5992,7 +5992,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -6000,7 +6000,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -6008,7 +6008,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -6016,7 +6016,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11">
@@ -6040,7 +6040,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -6064,7 +6064,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -6080,7 +6080,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -6104,7 +6104,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
@@ -6128,7 +6128,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -6160,7 +6160,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
@@ -6168,7 +6168,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -6497,7 +6497,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -6577,7 +6577,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -6633,7 +6633,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -6641,7 +6641,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
@@ -6649,7 +6649,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -6657,7 +6657,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -6793,7 +6793,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -6801,7 +6801,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46">
@@ -6809,7 +6809,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47">
@@ -6817,7 +6817,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
@@ -6825,7 +6825,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49">
@@ -6833,7 +6833,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50">
@@ -6841,7 +6841,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
@@ -6865,7 +6865,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
@@ -6873,7 +6873,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55">
@@ -6881,7 +6881,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56">
@@ -6897,7 +6897,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
@@ -6905,7 +6905,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59">
@@ -6921,7 +6921,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61">
@@ -6929,7 +6929,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -6978,7 +6978,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
@@ -7010,7 +7010,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -7106,7 +7106,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -7234,7 +7234,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37">
@@ -7242,7 +7242,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -7250,7 +7250,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -7258,7 +7258,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40">
@@ -7266,7 +7266,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41">
@@ -7274,7 +7274,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -7282,7 +7282,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43">
@@ -7290,7 +7290,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -7298,7 +7298,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45">
@@ -7306,7 +7306,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
@@ -7314,7 +7314,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47">
@@ -7322,7 +7322,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48">
@@ -7330,7 +7330,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49">
@@ -7362,7 +7362,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53">
@@ -7370,7 +7370,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54">
@@ -7378,7 +7378,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55">
@@ -7394,7 +7394,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57">
@@ -7402,7 +7402,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58">
@@ -7418,7 +7418,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
@@ -7426,7 +7426,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
@@ -7434,7 +7434,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -7579,7 +7579,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -7651,7 +7651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -7659,7 +7659,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27">
@@ -7667,7 +7667,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28">
@@ -7675,7 +7675,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
@@ -7683,7 +7683,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -7691,7 +7691,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -7699,7 +7699,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -7707,7 +7707,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
@@ -7715,7 +7715,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34">
@@ -7723,7 +7723,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
@@ -7843,7 +7843,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50">
@@ -7851,7 +7851,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51">
@@ -7859,7 +7859,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52">
@@ -7867,7 +7867,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53">
@@ -7875,7 +7875,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54">
@@ -7891,7 +7891,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56">
@@ -7899,7 +7899,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57">
@@ -7915,7 +7915,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59">
@@ -7923,7 +7923,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -7931,7 +7931,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61">
@@ -7972,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -7980,7 +7980,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -8028,7 +8028,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -8300,7 +8300,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
@@ -8308,7 +8308,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45">
@@ -8316,7 +8316,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
@@ -8324,7 +8324,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47">
@@ -8332,7 +8332,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48">
@@ -8340,7 +8340,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
@@ -8348,7 +8348,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50">
@@ -8380,7 +8380,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54">
@@ -8388,7 +8388,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
@@ -8396,7 +8396,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56">
@@ -8412,7 +8412,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58">
@@ -8428,7 +8428,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -8444,7 +8444,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -8485,7 +8485,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -8501,7 +8501,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6">
@@ -8517,7 +8517,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -8629,7 +8629,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22">
@@ -8637,7 +8637,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -8861,7 +8861,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51">
@@ -8869,7 +8869,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
@@ -8877,7 +8877,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53">
@@ -8901,7 +8901,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56">
@@ -8909,7 +8909,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57">
@@ -8925,7 +8925,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59">
@@ -8941,7 +8941,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61">
@@ -8949,7 +8949,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -8998,7 +8998,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -9062,7 +9062,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -9102,7 +9102,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -9142,7 +9142,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
@@ -9166,7 +9166,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26">
@@ -9198,7 +9198,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
@@ -9254,7 +9254,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -9262,7 +9262,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -9270,7 +9270,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -9278,7 +9278,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -9487,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -9503,7 +9503,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -9559,7 +9559,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -9583,7 +9583,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15">
@@ -10000,7 +10000,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -10208,7 +10208,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
@@ -10505,7 +10505,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
@@ -10633,7 +10633,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -10705,7 +10705,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -10793,7 +10793,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
@@ -11010,7 +11010,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
@@ -11058,7 +11058,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -11146,7 +11146,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
@@ -11170,7 +11170,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
@@ -11194,7 +11194,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -11226,7 +11226,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -11266,7 +11266,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
@@ -11274,7 +11274,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -11322,7 +11322,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43">
@@ -11330,7 +11330,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -11635,7 +11635,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -11683,7 +11683,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
@@ -11715,7 +11715,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29">
@@ -11747,7 +11747,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -11755,7 +11755,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34">
@@ -11795,7 +11795,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -11803,7 +11803,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -11851,7 +11851,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
@@ -11859,7 +11859,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -12044,7 +12044,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -12140,7 +12140,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -12164,7 +12164,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -12188,7 +12188,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
@@ -12220,7 +12220,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
@@ -12260,7 +12260,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -12268,7 +12268,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -12308,7 +12308,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -12316,7 +12316,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
@@ -12364,7 +12364,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -12372,7 +12372,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48">
